--- a/january12nd/dictionnaire_de_données_livre_examen.xlsx
+++ b/january12nd/dictionnaire_de_données_livre_examen.xlsx
@@ -731,7 +731,7 @@
   <dimension ref="A1:J994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
